--- a/biology/Biologie cellulaire et moléculaire/Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies/Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies/Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laboratoire_de_Physique_Mol%C3%A9culaire_des_Hautes_%C3%89nergies</t>
+          <t>Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Laboratoire de Physique Moléculaire des Hautes Énergies (LPMHE) est un établissement français de recherche fondamentale, aujourd’hui disparu. Ce laboratoire privé, situé sur la commune de Peymeinade, dans les Alpes-Maritimes, a mené certaines de ses recherches en association avec la Faculté de Sciences de  Nice.
-Le laboratoire était spécialisé dans les réactions moléculaires de haute énergie[1],[2].
+Le laboratoire était spécialisé dans les réactions moléculaires de haute énergie,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laboratoire_de_Physique_Mol%C3%A9culaire_des_Hautes_%C3%89nergies</t>
+          <t>Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Recherches et découvertes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1969, des chercheurs du laboratoire travaillaient par exemple sur l'ionisation par choc d'une cible gazeuse de molécules triatomiques d'hydrogène[3].
-En 1998, une équipe du LPMHE, sous la direction de Marcel Devienne (en) "bombarde" (par jets moléculaires (en) ) des atomes de carbone avec de l’hydrogène, de l’azote et de l’oxygène et créent ainsi artificiellement les "briques de base" de la vie, en l'occurrence des acides aminés et des bases azotées en reproduisant des "conditions quasi-cosmiques"[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1969, des chercheurs du laboratoire travaillaient par exemple sur l'ionisation par choc d'une cible gazeuse de molécules triatomiques d'hydrogène.
+En 1998, une équipe du LPMHE, sous la direction de Marcel Devienne (en) "bombarde" (par jets moléculaires (en) ) des atomes de carbone avec de l’hydrogène, de l’azote et de l’oxygène et créent ainsi artificiellement les "briques de base" de la vie, en l'occurrence des acides aminés et des bases azotées en reproduisant des "conditions quasi-cosmiques",.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laboratoire_de_Physique_Mol%C3%A9culaire_des_Hautes_%C3%89nergies</t>
+          <t>Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>‘Fast atom bombardment’—A rediscovered method for mass spectrometry (1982)
 Total synthesis of interstellar chemical compounds by high energy molecular beam bombardment on pure graphite (1984)
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laboratoire_de_Physique_Mol%C3%A9culaire_des_Hautes_%C3%89nergies</t>
+          <t>Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,85 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le laboratoire, unique laboratoire privé français dans son domaine, a été fondé par Marcel Devienne[6] (F.M. Devienne) en 1960 et a fermé ses portes en 2002.
-Fondateur et directeur
-1997 : Marcel Devienne (en), directeur du Laboratoire, reçoit le Prix Lazare-Carnot pour ses travaux en recherche fondamentale.
-Destin du site après la fermeture
-2008 : Le site du laboratoire fait l'objet d'un projet de terrain de golf, contesté par une association locale[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le laboratoire, unique laboratoire privé français dans son domaine, a été fondé par Marcel Devienne (F.M. Devienne) en 1960 et a fermé ses portes en 2002.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_de_Physique_Mol%C3%A9culaire_des_Hautes_%C3%89nergies</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fondateur et directeur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1997 : Marcel Devienne (en), directeur du Laboratoire, reçoit le Prix Lazare-Carnot pour ses travaux en recherche fondamentale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laboratoire_de_Physique_Moléculaire_des_Hautes_Énergies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laboratoire_de_Physique_Mol%C3%A9culaire_des_Hautes_%C3%89nergies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Destin du site après la fermeture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2008 : Le site du laboratoire fait l'objet d'un projet de terrain de golf, contesté par une association locale.
 </t>
         </is>
       </c>
